--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1715177.459014273</v>
+        <v>1712680.292837408</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673415</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9582121.81855149</v>
+        <v>9582121.818551492</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>332.2110827772226</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958324</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>135.6144989434185</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646393</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414546</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572861</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1661,19 +1661,19 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>114.1257886961402</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.337321720154</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
         <v>260.7327683834978</v>
@@ -1856,10 +1856,10 @@
         <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433904</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>15.23748855099072</v>
       </c>
       <c r="T17" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
         <v>157.0448987217169</v>
@@ -1904,7 +1904,7 @@
         <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>203.0084376073511</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
         <v>275.7808274412839</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475221</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144275</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938408</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574616</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713569</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652995</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425681</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T19" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
         <v>158.1873700866429</v>
@@ -2065,7 +2065,7 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
         <v>124.6343801149097</v>
@@ -2081,7 +2081,7 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
         <v>260.7327683834978</v>
@@ -2093,10 +2093,10 @@
         <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433904</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099075</v>
+        <v>15.23748855099073</v>
       </c>
       <c r="T20" t="n">
         <v>109.9676969024351</v>
@@ -2141,7 +2141,7 @@
         <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>203.00843760735</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
         <v>275.7808274412839</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475221</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144275</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938408</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574616</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713569</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172652995</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425681</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T22" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
         <v>158.1873700866429</v>
@@ -2302,7 +2302,7 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
         <v>124.6343801149097</v>
@@ -2318,7 +2318,7 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
         <v>260.7327683834978</v>
@@ -2327,13 +2327,13 @@
         <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>271.2006563476361</v>
       </c>
       <c r="G23" t="n">
         <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099075</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T23" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>115.3197825648243</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V23" t="n">
         <v>233.8019852329498</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475221</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144275</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938408</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574616</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713569</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425681</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T25" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
         <v>158.1873700866429</v>
@@ -2539,7 +2539,7 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
         <v>124.6343801149097</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,13 +2612,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>239.1112905479003</v>
+        <v>253.0545870713081</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,7 +2795,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>178.7194680135092</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>4.575587065273898</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865174</v>
+        <v>285.8032029865176</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940443</v>
+        <v>268.3422530940446</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437197</v>
+        <v>257.75240294372</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952986</v>
+        <v>284.9997313952989</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647482</v>
+        <v>309.9454070647485</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764902</v>
+        <v>313.9910869764905</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103572</v>
+        <v>197.6771257103575</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121259</v>
+        <v>12.25712311121289</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626569</v>
+        <v>106.9873314626572</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819387</v>
+        <v>154.064533281939</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931717</v>
+        <v>230.821619793172</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404498</v>
+        <v>252.3103300404501</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015058</v>
+        <v>272.8004620015061</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790903</v>
+        <v>289.3072999790907</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247748</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497406</v>
+        <v>82.90134150497435</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166459</v>
+        <v>70.31618242166489</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124911</v>
+        <v>51.68483434124941</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960593</v>
+        <v>49.50332396960623</v>
       </c>
       <c r="F34" t="n">
-        <v>48.490409345968</v>
+        <v>48.4904093459683</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206498</v>
+        <v>69.09516958206528</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735754</v>
+        <v>47.82437623735784</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447865</v>
+        <v>92.83838665447895</v>
       </c>
       <c r="T34" t="n">
-        <v>122.618310599206</v>
+        <v>122.6183105992063</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286496</v>
+        <v>189.2811995286499</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468648</v>
+        <v>155.2070046468651</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596278</v>
+        <v>189.5923596596281</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120739</v>
+        <v>128.7790167120742</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751315</v>
+        <v>121.6540146751318</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
@@ -3727,7 +3727,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441563</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136065</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>990.5514538055368</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>652.2128341553657</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>652.2128341553657</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218345</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.58875505237</v>
@@ -5072,19 +5072,19 @@
         <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>2967.252329049546</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.639074654049</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2683.639074654049</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.622949341042</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5142,22 +5142,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998341</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315253</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328089</v>
+        <v>408.6327023328082</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337117</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
         <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822735</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
         <v>316.646083875343</v>
@@ -5276,13 +5276,13 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.77673900139</v>
@@ -5297,7 +5297,7 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609172</v>
@@ -5309,19 +5309,19 @@
         <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>2988.95809697609</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2988.95809697609</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2683.63907465405</v>
+        <v>2393.999824030771</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.622949341043</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341043</v>
+        <v>1725.293999690026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D16" t="n">
         <v>535.3126933611985</v>
@@ -5422,10 +5422,10 @@
         <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536555</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781686</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795878</v>
+        <v>852.645912591832</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861269</v>
+        <v>536.559273698371</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032414</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312783</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482766</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.341105035342</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X17" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>2025.47551870453</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.3188191687815</v>
+        <v>427.3188191687813</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370212</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D19" t="n">
-        <v>298.064528620832</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345854</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328217</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036872</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769153</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>144.5955527148058</v>
+        <v>139.6276133533391</v>
       </c>
       <c r="K19" t="n">
-        <v>335.9171774872895</v>
+        <v>330.9492381258227</v>
       </c>
       <c r="L19" t="n">
-        <v>584.63779191446</v>
+        <v>579.6698525529932</v>
       </c>
       <c r="M19" t="n">
-        <v>752.0702732136579</v>
+        <v>747.102333852191</v>
       </c>
       <c r="N19" t="n">
-        <v>1016.389880748319</v>
+        <v>1011.421941386852</v>
       </c>
       <c r="O19" t="n">
-        <v>1247.319000471322</v>
+        <v>1242.351061109855</v>
       </c>
       <c r="P19" t="n">
-        <v>1439.280773728894</v>
+        <v>1434.312834367427</v>
       </c>
       <c r="Q19" t="n">
-        <v>1545.212311592248</v>
+        <v>1540.244372230781</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T19" t="n">
         <v>1321.558343780893</v>
@@ -5707,16 +5707,16 @@
         <v>1127.354742802683</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929431</v>
+        <v>967.5695204929427</v>
       </c>
       <c r="W19" t="n">
-        <v>773.051616352129</v>
+        <v>773.0516163521287</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502582</v>
+        <v>639.961331350258</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028747</v>
+        <v>514.0680181028745</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795877</v>
+        <v>852.6459125918318</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861267</v>
+        <v>536.5592736983713</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312782</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
         <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.34110503534</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.47551870453</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687815</v>
+        <v>427.3188191687813</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370212</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D22" t="n">
-        <v>298.064528620832</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345854</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328217</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036872</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769153</v>
+        <v>68.9385277176915</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>171.3456404744361</v>
       </c>
       <c r="K22" t="n">
-        <v>335.9171774872899</v>
+        <v>269.6564947421064</v>
       </c>
       <c r="L22" t="n">
-        <v>584.6377919144604</v>
+        <v>518.3771091692769</v>
       </c>
       <c r="M22" t="n">
-        <v>845.0810437184715</v>
+        <v>778.820360973288</v>
       </c>
       <c r="N22" t="n">
-        <v>1016.389880748319</v>
+        <v>1043.139968507949</v>
       </c>
       <c r="O22" t="n">
-        <v>1247.319000471322</v>
+        <v>1274.069088230952</v>
       </c>
       <c r="P22" t="n">
-        <v>1439.280773728894</v>
+        <v>1466.030861488523</v>
       </c>
       <c r="Q22" t="n">
-        <v>1545.212311592248</v>
+        <v>1540.244372230781</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T22" t="n">
         <v>1321.558343780893</v>
@@ -5944,16 +5944,16 @@
         <v>1127.354742802683</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929431</v>
+        <v>967.5695204929427</v>
       </c>
       <c r="W22" t="n">
-        <v>773.051616352129</v>
+        <v>773.0516163521287</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502582</v>
+        <v>639.961331350258</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028747</v>
+        <v>514.0680181028745</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689842</v>
+        <v>1691.845990713185</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.78273966892</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958316</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328752</v>
+        <v>863.5273202562186</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394142</v>
+        <v>589.5872633394143</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805573</v>
+        <v>269.4140790805574</v>
       </c>
       <c r="H23" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I23" t="n">
-        <v>77.39352409656723</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J23" t="n">
-        <v>266.2726550555927</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K23" t="n">
-        <v>600.0920287454392</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L23" t="n">
-        <v>1051.126241993848</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665773</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603892</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.18380096107</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273555</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696796</v>
+        <v>3321.095826696799</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977165</v>
+        <v>3210.017344977167</v>
       </c>
       <c r="U23" t="n">
-        <v>3093.532716123807</v>
+        <v>3051.386134147151</v>
       </c>
       <c r="V23" t="n">
-        <v>2857.369094676383</v>
+        <v>2815.222512699726</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302415</v>
+        <v>2557.353123325759</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2278.786630960826</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857817</v>
+        <v>1983.546564881161</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343962</v>
+        <v>941.7614826343964</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532692</v>
+        <v>767.3084533532694</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920182</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865625</v>
+        <v>459.1365886865626</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134475</v>
+        <v>312.6020307134476</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393313</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I24" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K24" t="n">
         <v>398.6712130564356</v>
@@ -6096,13 +6096,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T24" t="n">
-        <v>2243.045930450479</v>
+        <v>2243.04593045048</v>
       </c>
       <c r="U24" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.825975353152</v>
+        <v>1779.825975353153</v>
       </c>
       <c r="W24" t="n">
         <v>1525.588618624951</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220693</v>
+        <v>427.536447322069</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903089</v>
+        <v>353.4995302903087</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741197</v>
+        <v>298.2821567741196</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878732</v>
+        <v>245.268329087873</v>
       </c>
       <c r="F25" t="n">
         <v>193.2776474861093</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569749</v>
+        <v>120.4740767569748</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097919</v>
+        <v>69.15615587097921</v>
       </c>
       <c r="I25" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J25" t="n">
-        <v>171.5632686277238</v>
+        <v>171.5632686277239</v>
       </c>
       <c r="K25" t="n">
-        <v>362.8848934002074</v>
+        <v>362.8848934002075</v>
       </c>
       <c r="L25" t="n">
-        <v>611.6055078273779</v>
+        <v>611.605507827378</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0379891265757</v>
+        <v>872.0487596313891</v>
       </c>
       <c r="N25" t="n">
-        <v>1016.607508901607</v>
+        <v>1104.650340044952</v>
       </c>
       <c r="O25" t="n">
-        <v>1247.53662862461</v>
+        <v>1242.568689263142</v>
       </c>
       <c r="P25" t="n">
-        <v>1439.498401882181</v>
+        <v>1434.530462520714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1545.429939745535</v>
+        <v>1540.462000384068</v>
       </c>
       <c r="R25" t="n">
         <v>1545.429939745535</v>
@@ -6175,22 +6175,22 @@
         <v>1448.643321468508</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.775971934181</v>
+        <v>1321.77597193418</v>
       </c>
       <c r="U25" t="n">
         <v>1127.572370955971</v>
       </c>
       <c r="V25" t="n">
-        <v>967.7871486462308</v>
+        <v>967.7871486462304</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2692445054167</v>
+        <v>773.2692445054164</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035459</v>
+        <v>640.1789595035457</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561624</v>
+        <v>514.2856462561622</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1680.351750728111</v>
+        <v>1340.251487512674</v>
       </c>
       <c r="C26" t="n">
-        <v>1358.838866735772</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.022801077095</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="E26" t="n">
-        <v>1048.022801077095</v>
+        <v>680.3999838701648</v>
       </c>
       <c r="F26" t="n">
-        <v>684.4865292355609</v>
+        <v>316.8637120286305</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>316.8637120286305</v>
       </c>
       <c r="H26" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I26" t="n">
-        <v>72.07396936268107</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J26" t="n">
-        <v>260.9531003217065</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K26" t="n">
-        <v>594.772474011553</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.126241993848</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1584.658146665773</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O26" t="n">
-        <v>2634.409434603892</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.18380096107</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716752</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273555</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748723</v>
+        <v>3273.646193748726</v>
       </c>
       <c r="T26" t="n">
-        <v>3115.118079081019</v>
+        <v>3115.118079081021</v>
       </c>
       <c r="U26" t="n">
-        <v>2909.037235302928</v>
+        <v>2909.037235302931</v>
       </c>
       <c r="V26" t="n">
-        <v>2667.510679193938</v>
+        <v>2653.426541291508</v>
       </c>
       <c r="W26" t="n">
-        <v>2362.191656871898</v>
+        <v>2348.107518969467</v>
       </c>
       <c r="X26" t="n">
-        <v>2362.191656871898</v>
+        <v>2022.091393656461</v>
       </c>
       <c r="Y26" t="n">
-        <v>2019.501957844159</v>
+        <v>1679.401694628722</v>
       </c>
     </row>
     <row r="27">
@@ -6294,16 +6294,16 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G27" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73703618393313</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K27" t="n">
         <v>398.6712130564356</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585818</v>
+        <v>759.6838779585828</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787481</v>
+        <v>638.1973279787492</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144858</v>
+        <v>535.5303215144868</v>
       </c>
       <c r="E28" t="n">
-        <v>435.066860880166</v>
+        <v>435.0668608801669</v>
       </c>
       <c r="F28" t="n">
-        <v>335.626546330329</v>
+        <v>335.6265463303299</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531213</v>
+        <v>215.3733426531221</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190524</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848124</v>
+        <v>158.3577622848133</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860955</v>
+        <v>408.8503304860964</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869983</v>
+        <v>771.9155141869992</v>
       </c>
       <c r="M28" t="n">
-        <v>1162.577945038954</v>
+        <v>1162.577945038955</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.491706997225</v>
+        <v>1550.491706997226</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.326691170045</v>
+        <v>1896.326691170046</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.439576856111</v>
+        <v>2175.439576856112</v>
       </c>
       <c r="Q28" t="n">
         <v>2299.555258261033</v>
       </c>
       <c r="R28" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.96796633285</v>
+        <v>1696.967966332851</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036206</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407481</v>
+        <v>893.8827098407492</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2018.690370378282</v>
+        <v>1638.265052441606</v>
       </c>
       <c r="C29" t="n">
-        <v>1697.177486385943</v>
+        <v>1316.752168449267</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.361420727266</v>
+        <v>1136.227453284107</v>
       </c>
       <c r="E29" t="n">
-        <v>1048.022801077095</v>
+        <v>797.8888336339357</v>
       </c>
       <c r="F29" t="n">
-        <v>684.4865292355609</v>
+        <v>434.3525617924014</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444965</v>
+        <v>266.272655055595</v>
       </c>
       <c r="K29" t="n">
-        <v>589.428249234343</v>
+        <v>600.0920287454414</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.12624199385</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.994367154676</v>
+        <v>1584.658146665775</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724557</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.745655092795</v>
+        <v>2634.409434603894</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.520021449974</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.806383205656</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S29" t="n">
-        <v>3336.487229273554</v>
+        <v>3273.646193748726</v>
       </c>
       <c r="T29" t="n">
-        <v>3336.487229273554</v>
+        <v>3115.118079081021</v>
       </c>
       <c r="U29" t="n">
-        <v>3331.865424157116</v>
+        <v>2909.037235302931</v>
       </c>
       <c r="V29" t="n">
-        <v>3331.865424157116</v>
+        <v>2625.423980907433</v>
       </c>
       <c r="W29" t="n">
-        <v>3026.546401835075</v>
+        <v>2320.104958585393</v>
       </c>
       <c r="X29" t="n">
-        <v>2700.530276522069</v>
+        <v>2320.104958585393</v>
       </c>
       <c r="Y29" t="n">
-        <v>2357.84057749433</v>
+        <v>1977.415259557654</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343962</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532692</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E30" t="n">
-        <v>459.1365886865625</v>
+        <v>459.1365886865626</v>
       </c>
       <c r="F30" t="n">
-        <v>312.6020307134475</v>
+        <v>312.6020307134476</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393313</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K30" t="n">
         <v>398.6712130564356</v>
@@ -6570,13 +6570,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T30" t="n">
-        <v>2243.045930450479</v>
+        <v>2243.04593045048</v>
       </c>
       <c r="U30" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.825975353152</v>
+        <v>1779.825975353153</v>
       </c>
       <c r="W30" t="n">
         <v>1525.588618624951</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585825</v>
+        <v>759.6838779585821</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787488</v>
+        <v>638.1973279787485</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144864</v>
+        <v>535.5303215144861</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801666</v>
+        <v>435.0668608801662</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303296</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531217</v>
+        <v>215.3733426531214</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190526</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J31" t="n">
         <v>158.3577622848133</v>
@@ -6643,28 +6643,28 @@
         <v>2299.555258261033</v>
       </c>
       <c r="R31" t="n">
-        <v>2257.174433966635</v>
+        <v>2257.174433966634</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.938182741535</v>
+        <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.967966332851</v>
+        <v>1696.96796633285</v>
       </c>
       <c r="V31" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.225656036206</v>
+        <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407489</v>
+        <v>893.8827098407485</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842702</v>
+        <v>1715.929751842703</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939627</v>
+        <v>1444.876970939628</v>
       </c>
       <c r="D32" t="n">
         <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093061</v>
+        <v>896.6424918093057</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570351</v>
+        <v>583.566323057035</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393672</v>
+        <v>266.4036089393676</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I32" t="n">
-        <v>77.39352409656632</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J32" t="n">
-        <v>266.2726550555918</v>
+        <v>266.272655055595</v>
       </c>
       <c r="K32" t="n">
-        <v>600.0920287454383</v>
+        <v>600.0920287454414</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.126241993847</v>
+        <v>1051.12624199385</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665772</v>
+        <v>1584.658146665775</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724554</v>
+        <v>2131.436963724557</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603891</v>
+        <v>2634.409434603894</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961069</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716751</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837986</v>
+        <v>3324.106296837989</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259544</v>
+        <v>3216.038285259547</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570718</v>
+        <v>3060.41754457072</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264484</v>
+        <v>2827.264393264486</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031706</v>
+        <v>2572.405474031708</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807963</v>
+        <v>2296.849451807964</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869488</v>
+        <v>2004.619855869489</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K33" t="n">
         <v>398.6712130564356</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894207</v>
+        <v>407.0472151894226</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988504</v>
+        <v>336.020768298852</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238513</v>
+        <v>283.8138649238526</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787949</v>
+        <v>233.8105073787958</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182211</v>
+        <v>184.8302959182218</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302767</v>
+        <v>115.037195330277</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547108</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J34" t="n">
-        <v>174.5138304131041</v>
+        <v>174.5138304131039</v>
       </c>
       <c r="K34" t="n">
-        <v>368.7860169709681</v>
+        <v>272.8246846807743</v>
       </c>
       <c r="L34" t="n">
-        <v>524.4958608933255</v>
+        <v>524.4958608933248</v>
       </c>
       <c r="M34" t="n">
-        <v>691.9283421925232</v>
+        <v>783.9554921066077</v>
       </c>
       <c r="N34" t="n">
-        <v>959.1985115125643</v>
+        <v>955.2643291364552</v>
       </c>
       <c r="O34" t="n">
-        <v>1193.078193020948</v>
+        <v>1189.144010644838</v>
       </c>
       <c r="P34" t="n">
-        <v>1387.9905280639</v>
+        <v>1384.05634568779</v>
       </c>
       <c r="Q34" t="n">
-        <v>1492.93844533652</v>
+        <v>1492.938445336524</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483367</v>
+        <v>1500.856946483371</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.08079834753</v>
+        <v>1407.080798347534</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954392</v>
+        <v>1283.223918954396</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117372</v>
+        <v>1092.030788117376</v>
       </c>
       <c r="V34" t="n">
-        <v>935.256035948822</v>
+        <v>935.2560359488252</v>
       </c>
       <c r="W34" t="n">
-        <v>743.748601949198</v>
+        <v>743.7486019492009</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6687870885173</v>
+        <v>613.6687870885198</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823238</v>
+        <v>490.785943982326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
@@ -6947,25 +6947,25 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7072,10 +7072,10 @@
         <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159869</v>
@@ -7087,34 +7087,34 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>262.1948921089731</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>514.6126090571543</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M37" t="n">
-        <v>778.7529633821759</v>
+        <v>693.2037955104961</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437847</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
@@ -7138,7 +7138,7 @@
         <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7169,19 +7169,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218252</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912081</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7202,7 +7202,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7211,13 +7211,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7309,10 +7309,10 @@
         <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
         <v>231.3077836159869</v>
@@ -7321,37 +7321,37 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889412</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L40" t="n">
-        <v>622.4791872371223</v>
+        <v>514.6126090571543</v>
       </c>
       <c r="M40" t="n">
-        <v>886.6195415621441</v>
+        <v>778.7529633821759</v>
       </c>
       <c r="N40" t="n">
-        <v>1154.636251617816</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O40" t="n">
-        <v>1369.438726825208</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.389729577966</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
@@ -7375,7 +7375,7 @@
         <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,13 +7409,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7546,10 +7546,10 @@
         <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
         <v>231.3077836159869</v>
@@ -7558,37 +7558,37 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L43" t="n">
-        <v>429.0634411854744</v>
+        <v>623.7981640572063</v>
       </c>
       <c r="M43" t="n">
-        <v>682.0450903563519</v>
+        <v>791.2306453564041</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120233</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.34689843462</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818984</v>
@@ -7612,7 +7612,7 @@
         <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="44">
@@ -7631,61 +7631,61 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912081</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7783,10 +7783,10 @@
         <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630289</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E46" t="n">
         <v>231.3077836159869</v>
@@ -7798,31 +7798,31 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889411</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371222</v>
+        <v>430.3824180055587</v>
       </c>
       <c r="M46" t="n">
-        <v>886.6195415621439</v>
+        <v>694.5227723305804</v>
       </c>
       <c r="N46" t="n">
-        <v>1154.636251617815</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O46" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1391.505603588764</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
         <v>1481.310496936507</v>
@@ -7849,7 +7849,7 @@
         <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272244</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>65.342958377751</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.73550625763832</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>68.40553639689097</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.2628020374611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>89.89424664416927</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515424</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866649</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287791</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>52.28225787287688</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.28225787287789</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>52.28225787287791</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>41.72511615689018</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>41.72511615689258</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24446,16 +24446,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,13 +24500,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>41.66583130364197</v>
+        <v>27.72253478023422</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>128.9884369885812</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,22 +24728,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>199.4444482750355</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798892.8842623968</v>
+        <v>798892.884262397</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837302.1046910428</v>
+        <v>837302.1046910427</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838163.46188365</v>
+        <v>838163.4618836502</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799754.2414550042</v>
+        <v>799754.2414550043</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799754.2414550041</v>
+        <v>799754.2414550043</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
-        <v>593978.1684087018</v>
+        <v>593978.1684087019</v>
       </c>
       <c r="E2" t="n">
-        <v>554284.9821701363</v>
+        <v>554284.9821701361</v>
       </c>
       <c r="F2" t="n">
-        <v>554284.9821701364</v>
+        <v>554284.9821701362</v>
       </c>
       <c r="G2" t="n">
         <v>592238.0740497606</v>
       </c>
       <c r="H2" t="n">
-        <v>592238.0740497607</v>
+        <v>592238.0740497606</v>
       </c>
       <c r="I2" t="n">
-        <v>592847.3266981904</v>
+        <v>592847.3266981918</v>
       </c>
       <c r="J2" t="n">
-        <v>554894.2348185652</v>
+        <v>554894.2348185655</v>
       </c>
       <c r="K2" t="n">
-        <v>554894.2348185655</v>
+        <v>554894.2348185653</v>
       </c>
       <c r="L2" t="n">
         <v>595255.2831516066</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="N2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516053</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655461</v>
+        <v>10420.33926655473</v>
       </c>
       <c r="E3" t="n">
         <v>1151572.830875721</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487392</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018801284</v>
+        <v>723.3987018805112</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.5109415706</v>
+        <v>77544.51094157035</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540877</v>
@@ -26424,40 +26424,40 @@
         <v>463375.033574726</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369694</v>
+        <v>63095.10913369698</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.10913369694</v>
+        <v>63095.109133697</v>
       </c>
       <c r="G4" t="n">
-        <v>91416.01306755032</v>
+        <v>91416.01306755036</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.01306755035</v>
+        <v>91416.01306755039</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.6811294285</v>
+        <v>91906.68112942862</v>
       </c>
       <c r="J4" t="n">
-        <v>63585.77719557517</v>
+        <v>63585.77719557524</v>
       </c>
       <c r="K4" t="n">
-        <v>63585.77719557512</v>
+        <v>63585.77719557524</v>
       </c>
       <c r="L4" t="n">
-        <v>93788.48670920232</v>
+        <v>93788.48670920225</v>
       </c>
       <c r="M4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657699</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657699</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217023</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866884</v>
+        <v>82370.04347866889</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.8907182804</v>
+        <v>78420.89071828043</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828038</v>
+        <v>78420.89071828043</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082555</v>
+        <v>82620.59982082556</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92731.78563812151</v>
+        <v>92727.3720602534</v>
       </c>
       <c r="C6" t="n">
-        <v>92731.78563812151</v>
+        <v>92727.37206025317</v>
       </c>
       <c r="D6" t="n">
-        <v>86289.9460549064</v>
+        <v>86285.54221096534</v>
       </c>
       <c r="E6" t="n">
-        <v>-738638.4511610635</v>
+        <v>-738779.7280609997</v>
       </c>
       <c r="F6" t="n">
-        <v>412934.3797146577</v>
+        <v>412793.1028147216</v>
       </c>
       <c r="G6" t="n">
-        <v>381037.305605166</v>
+        <v>381026.9014358494</v>
       </c>
       <c r="H6" t="n">
-        <v>418617.4149000403</v>
+        <v>418607.0107307234</v>
       </c>
       <c r="I6" t="n">
-        <v>417847.2033882129</v>
+        <v>417838.9000900986</v>
       </c>
       <c r="J6" t="n">
-        <v>412887.5669047096</v>
+        <v>412748.3908759753</v>
       </c>
       <c r="K6" t="n">
-        <v>412887.56690471</v>
+        <v>412748.3908759751</v>
       </c>
       <c r="L6" t="n">
-        <v>341301.6856800081</v>
+        <v>341301.6856800084</v>
       </c>
       <c r="M6" t="n">
-        <v>211848.6370646908</v>
+        <v>211848.6370646909</v>
       </c>
       <c r="N6" t="n">
         <v>418962.5480187784</v>
       </c>
       <c r="O6" t="n">
-        <v>418962.5480187788</v>
+        <v>418962.5480187787</v>
       </c>
       <c r="P6" t="n">
-        <v>418962.5480187788</v>
+        <v>418962.5480187784</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309563</v>
+        <v>12.16740883095644</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26771,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26802,34 @@
         <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183887</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183887</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183885</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183885</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511417094</v>
+        <v>0.7540815511419936</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309563</v>
+        <v>12.16740883095644</v>
       </c>
       <c r="E3" t="n">
         <v>1077.609291762342</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916095865</v>
+        <v>2.720351916096661</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861975</v>
+        <v>828.6811034861965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27874,31 +27874,31 @@
         <v>208.5901246298815</v>
       </c>
       <c r="J8" t="n">
-        <v>176.8943724050124</v>
+        <v>176.8943724050123</v>
       </c>
       <c r="K8" t="n">
-        <v>213.867780568274</v>
+        <v>213.8677805682739</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505254</v>
+        <v>228.0473863505253</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905344</v>
+        <v>221.7573265905343</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710447</v>
+        <v>220.6851794710446</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355891</v>
+        <v>221.856717935589</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385759</v>
+        <v>224.1990717385758</v>
       </c>
       <c r="Q8" t="n">
         <v>217.0235058728658</v>
       </c>
       <c r="R8" t="n">
-        <v>212.512930799147</v>
+        <v>212.5129307991469</v>
       </c>
       <c r="S8" t="n">
         <v>207.905437108917</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525465</v>
+        <v>98.62130302525463</v>
       </c>
       <c r="J9" t="n">
         <v>124.36500257584</v>
@@ -27959,22 +27959,22 @@
         <v>133.6153305693654</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951903</v>
+        <v>132.8718554951902</v>
       </c>
       <c r="M9" t="n">
         <v>135.5027961091471</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374194</v>
+        <v>124.5349651374193</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948889</v>
+        <v>136.3694007948888</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173286</v>
+        <v>128.9768164173285</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537937</v>
+        <v>136.6410168537936</v>
       </c>
       <c r="R9" t="n">
         <v>144.0545809506525</v>
@@ -28032,10 +28032,10 @@
         <v>154.7906423303271</v>
       </c>
       <c r="J10" t="n">
-        <v>125.4441765463085</v>
+        <v>125.4441765463084</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4640862875908</v>
+        <v>126.4640862875907</v>
       </c>
       <c r="L10" t="n">
         <v>131.6226139202307</v>
@@ -28044,7 +28044,7 @@
         <v>135.4863965628152</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250449</v>
+        <v>124.3279380250448</v>
       </c>
       <c r="O10" t="n">
         <v>135.3552454599787</v>
@@ -28053,7 +28053,7 @@
         <v>135.0743121296879</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959715</v>
+        <v>149.6677228959714</v>
       </c>
       <c r="R10" t="n">
         <v>176.3068339332693</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292592</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J19" t="n">
-        <v>66.92998257089178</v>
+        <v>61.91186200375374</v>
       </c>
       <c r="K19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="L19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="O19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="K22" t="n">
-        <v>66.92998257089232</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="O22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718509</v>
+        <v>61.91186200375411</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I23" t="n">
-        <v>52.34842422857862</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.77149445565487</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="24">
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="N25" t="n">
-        <v>66.92998257089243</v>
+        <v>61.9118620037533</v>
       </c>
       <c r="O25" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>46.97513661859258</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.37328760998605</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>10.77149445565482</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29509,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10.77149445565493</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>10.77149445565206</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="I32" t="n">
-        <v>52.34842422857771</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.77149445565493</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93063867696324</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.9567170849345</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696324</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="P34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="Q34" t="n">
-        <v>92.9567170849286</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="R34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696324</v>
+        <v>96.93063867696294</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30168,49 +30168,49 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.41330088048471</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242698</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292502</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>85.08100106221787</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O40" t="n">
-        <v>77.66073332242649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M43" t="n">
-        <v>86.41330088048454</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>76.3284335041601</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>76.32843350415996</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66073332242696</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560317</v>
+        <v>0.04891420635560374</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393211</v>
+        <v>0.5009426158393269</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524393</v>
+        <v>1.885764940524415</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121673879</v>
+        <v>4.151532121673926</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476706562</v>
+        <v>6.222070476706634</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619461854</v>
+        <v>7.719028619461943</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636738312</v>
+        <v>8.588906636738411</v>
       </c>
       <c r="N8" t="n">
-        <v>8.72788412554617</v>
+        <v>8.72788412554627</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486097641</v>
+        <v>8.241493486097735</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016693685</v>
+        <v>7.033924016693767</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583645</v>
+        <v>5.282184001583706</v>
       </c>
       <c r="R8" t="n">
-        <v>3.07260701498516</v>
+        <v>3.072607014985196</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328308</v>
+        <v>1.114632477328321</v>
       </c>
       <c r="T8" t="n">
-        <v>0.214121938321653</v>
+        <v>0.2141219383216555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448252</v>
+        <v>0.003913136508448298</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413241</v>
+        <v>0.02617140767413272</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317526</v>
+        <v>0.2527607004317555</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747453485</v>
+        <v>0.901076974745359</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826695</v>
+        <v>2.472624090826723</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993567</v>
+        <v>4.226108404993616</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284683883</v>
+        <v>5.682524284683948</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871182</v>
+        <v>6.631237812871258</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945913939</v>
+        <v>6.806746945914018</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555531</v>
+        <v>6.226843649555603</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001654</v>
+        <v>4.997590997001712</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.34075723222785</v>
+        <v>3.340757232227889</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311485</v>
+        <v>1.624923013311504</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188594329</v>
+        <v>0.4861224188594385</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268758</v>
+        <v>0.105489138826877</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456081</v>
+        <v>0.0017218031364561</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942939</v>
+        <v>0.02194122903942964</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323814</v>
+        <v>0.1950774727323837</v>
       </c>
       <c r="I10" t="n">
-        <v>0.659832596931204</v>
+        <v>0.6598325969312115</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087657</v>
+        <v>1.551244893087675</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944614</v>
+        <v>2.549171882944643</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007529</v>
+        <v>3.262062361007567</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789826</v>
+        <v>3.439387384789866</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188319</v>
+        <v>3.357606440188358</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864075</v>
+        <v>3.101292991864111</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459713</v>
+        <v>2.653691919459744</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474401</v>
+        <v>1.837278733474422</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439001611</v>
+        <v>0.9865574439001724</v>
       </c>
       <c r="S10" t="n">
-        <v>0.382375782441692</v>
+        <v>0.3823757824416964</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771392553</v>
+        <v>0.09374888771392662</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241604</v>
+        <v>0.001196794311241618</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35580,13 +35580,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35805,7 +35805,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.8721578612347</v>
+        <v>73.85403729409663</v>
       </c>
       <c r="K19" t="n">
         <v>193.2541664368522</v>
@@ -36054,16 +36054,16 @@
         <v>266.9895025602634</v>
       </c>
       <c r="O19" t="n">
-        <v>233.2617370939425</v>
+        <v>233.2617370939424</v>
       </c>
       <c r="P19" t="n">
-        <v>193.9007810682545</v>
+        <v>193.9007810682544</v>
       </c>
       <c r="Q19" t="n">
         <v>107.0015533973273</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.018120567137785</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>105.892448527528</v>
       </c>
       <c r="K22" t="n">
-        <v>166.2338757705594</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
         <v>251.2329438658288</v>
@@ -36288,7 +36288,7 @@
         <v>263.0739917212233</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>266.9895025602634</v>
       </c>
       <c r="O22" t="n">
         <v>233.2617370939424</v>
@@ -36297,10 +36297,10 @@
         <v>193.9007810682544</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.0015533973273</v>
+        <v>74.96314216389628</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.018120567137771</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10.77149445565266</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>190.7870009687126</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>409.5334806750267</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36516,19 +36516,19 @@
         <v>105.892448527528</v>
       </c>
       <c r="K25" t="n">
-        <v>193.2541664368521</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L25" t="n">
         <v>251.2329438658288</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>263.0739917212233</v>
       </c>
       <c r="N25" t="n">
-        <v>239.9692118939707</v>
+        <v>234.9510913268316</v>
       </c>
       <c r="O25" t="n">
-        <v>233.2617370939424</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
         <v>193.9007810682544</v>
@@ -36537,7 +36537,7 @@
         <v>107.0015533973273</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.018120567137785</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687126</v>
@@ -36598,7 +36598,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>460.9634020023182</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>70.3846929978796</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316579</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243675</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>70.38469299787684</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.77149445565176</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243675</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37224,31 +37224,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>108.8728139673061</v>
+        <v>108.8728139673058</v>
       </c>
       <c r="K34" t="n">
-        <v>196.2345318766303</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>254.2133093056066</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840382</v>
+        <v>262.0804355689727</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000415</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2421025337206</v>
+        <v>236.2421025337202</v>
       </c>
       <c r="P34" t="n">
-        <v>196.8811465080326</v>
+        <v>196.8811465080323</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.0079972450708</v>
+        <v>109.9819188371051</v>
       </c>
       <c r="R34" t="n">
-        <v>7.998486006915911</v>
+        <v>7.998486006915613</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>185.7171940801518</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>250.6999626455053</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
         <v>197.6352280591743</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.043271182401276e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277721</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>242.3636716908616</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>216.9721971791839</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106939</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014223</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37932,22 +37932,22 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>255.5370193645227</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>249.3676628272384</v>
       </c>
       <c r="O43" t="n">
         <v>236.9961840848623</v>
@@ -37956,10 +37956,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687118</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38169,31 +38169,31 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609173</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.71201348256916</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
         <v>8.752567558057621</v>
